--- a/data/trans_dic/P69_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Edad-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,99; 100,0</t>
+          <t>90,44; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,51; 100,0</t>
+          <t>93,42; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,48; 100,0</t>
+          <t>95,2; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,05; 100,0</t>
+          <t>93,92; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,08; 100,0</t>
+          <t>91,47; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>96,84; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,15; 100,0</t>
+          <t>95,84; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,4; 100,0</t>
+          <t>95,22; 100,0</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,16; 100,0</t>
+          <t>94,04; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,58; 100,0</t>
+          <t>92,33; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,07; 100,0</t>
+          <t>96,7; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,46; 100,0</t>
+          <t>96,45; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,1; 99,75</t>
+          <t>95,27; 99,75</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,32; 100,0</t>
+          <t>95,34; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,26; 100,0</t>
+          <t>93,28; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,11; 100,0</t>
+          <t>94,65; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,88; 100,0</t>
+          <t>91,78; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,54</t>
+          <t>95,73; 99,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,19; 100,0</t>
+          <t>96,62; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95,0; 100,0</t>
+          <t>94,44; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,87; 99,68</t>
+          <t>96,7; 99,69</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,6; 100,0</t>
+          <t>90,5; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,6; 100,0</t>
+          <t>98,31; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,93; 100,0</t>
+          <t>93,96; 100,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>99,34; 100,0</t>
+          <t>99,41; 100,0</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1564,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,13; 99,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,77; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,22; 99,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,78</t>
+          <t>97,65; 99,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,32 +1594,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,88; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,58</t>
+          <t>97,68; 99,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,71; 99,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,25; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>98,07; 99,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,56</t>
+          <t>98,08; 99,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,44; 100,0</t>
+          <t>90,48; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,42; 100,0</t>
+          <t>91,72; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,2; 100,0</t>
+          <t>94,87; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,92; 100,0</t>
+          <t>93,95; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,84; 100,0</t>
+          <t>96,83; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95,84; 100,0</t>
+          <t>95,44; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,04; 100,0</t>
+          <t>93,44; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,45; 100,0</t>
+          <t>96,86; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100,0</t>
+          <t>95,04; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,28; 100,0</t>
+          <t>93,32; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,78; 100,0</t>
+          <t>89,61; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,62; 100,0</t>
+          <t>96,11; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94,44; 100,0</t>
+          <t>95,51; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,5; 100,0</t>
+          <t>90,58; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,96; 100,0</t>
+          <t>93,99; 100,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,79</t>
+          <t>98,05; 99,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,77; 100,0</t>
+          <t>98,56; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,22; 99,72</t>
+          <t>97,44; 99,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,88; 100,0</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,86</t>
+          <t>98,57; 99,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>99,25; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98,07; 99,68</t>
+          <t>98,01; 99,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P69_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,48; 100,0</t>
+          <t>88,99; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,72; 100,0</t>
+          <t>93,51; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,87; 100,0</t>
+          <t>95,48; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,95; 100,0</t>
+          <t>95,05; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,47; 100,0</t>
+          <t>91,08; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,83; 100,0</t>
+          <t>97,26; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>95,44; 100,0</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,22; 100,0</t>
+          <t>96,4; 100,0</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,44; 100,0</t>
+          <t>94,16; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>92,33; 100,0</t>
+          <t>93,58; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,7; 100,0</t>
+          <t>97,07; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,86; 100,0</t>
+          <t>96,46; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,27; 99,75</t>
+          <t>96,1; 99,75</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,04; 100,0</t>
+          <t>95,32; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,32; 100,0</t>
+          <t>94,26; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,65; 100,0</t>
+          <t>95,11; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,61; 100,0</t>
+          <t>89,88; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,73; 99,55</t>
+          <t>95,23; 99,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,11; 100,0</t>
+          <t>97,19; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95,51; 100,0</t>
+          <t>95,0; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,7; 99,69</t>
+          <t>96,87; 99,68</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,58; 100,0</t>
+          <t>88,6; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,31; 100,0</t>
+          <t>98,6; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,99; 100,0</t>
+          <t>93,93; 100,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>99,41; 100,0</t>
+          <t>99,34; 100,0</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1564,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,8</t>
+          <t>98,04; 99,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,56; 100,0</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,44; 99,72</t>
+          <t>96,89; 99,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97,65; 99,78</t>
+          <t>97,53; 99,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,32 +1594,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>97,68; 99,56</t>
+          <t>97,53; 99,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,57; 99,86</t>
+          <t>98,62; 99,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>99,15; 100,0</t>
+          <t>99,19; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,66</t>
+          <t>98,1; 99,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,54</t>
+          <t>98,2; 99,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,19%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,08; 100,0</t>
+          <t>90,84; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,4; 100,0</t>
+          <t>96,45; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,77%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,58; 100,0</t>
+          <t>94,33; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,07; 100,0</t>
+          <t>97,12; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,1; 99,75</t>
+          <t>96,41; 99,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>98,8%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,11; 100,0</t>
+          <t>94,97; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,54</t>
+          <t>95,72; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,87; 99,68</t>
+          <t>97,09; 99,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>99,87%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,6; 100,0</t>
+          <t>98,47; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>99,34; 100,0</t>
+          <t>99,28; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99,18%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99,75%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98,89%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>99,21%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>99,49%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>98,98%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>99,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>99,12%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>99,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>98,04; 99,79</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>98,86; 100,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>96,89; 99,7</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>97,53; 99,78</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>97,71; 99,79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>99,11; 100</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>99,04; 100</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>97,3; 100,0</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>97,53; 99,58</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>97,58; 99,6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>98,62; 99,85</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>99,19; 100,0</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>98,1; 99,66</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>98,2; 99,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>98,27; 99,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P69_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,99; 100,0</t>
+          <t>89,71; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -764,7 +765,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,51; 100,0</t>
+          <t>93,4; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,48; 100,0</t>
+          <t>94,93; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +875,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,05; 100,0</t>
+          <t>93,45; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -899,12 +900,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,84; 100,0</t>
+          <t>90,71; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,26; 100,0</t>
+          <t>97,28; 100,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,15; 100,0</t>
+          <t>95,04; 100,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,45; 100,0</t>
+          <t>95,86; 100,0</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,16; 100,0</t>
+          <t>94,92; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,33; 100,0</t>
+          <t>94,48; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,12; 100,0</t>
+          <t>96,2; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,46; 100,0</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,41; 99,76</t>
+          <t>96,25; 99,75</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,32; 100,0</t>
+          <t>95,68; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,26; 100,0</t>
+          <t>94,03; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100,0</t>
+          <t>94,8; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,17 +1175,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,88; 100,0</t>
+          <t>89,85; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,72; 100,0</t>
+          <t>96,27; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,19; 100,0</t>
+          <t>96,18; 100,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95,0; 100,0</t>
+          <t>95,59; 100,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,09; 99,72</t>
+          <t>96,84; 99,69</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,6; 100,0</t>
+          <t>90,66; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,47; 100,0</t>
+          <t>98,2; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1330,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,93; 100,0</t>
+          <t>93,34; 100,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>99,28; 100,0</t>
+          <t>99,07; 100,0</t>
         </is>
       </c>
     </row>
@@ -1704,22 +1705,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,09; 99,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,66; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,47; 99,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>97,71; 99,79</t>
+          <t>97,9; 99,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,32 +1735,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,6</t>
+          <t>97,64; 99,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,58; 99,86</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>97,88; 99,67</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>98,27; 99,59</t>
+          <t>98,27; 99,57</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que considera que tiene problemas de salud a causa del trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45322</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10327</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17151</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19859</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65181</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20383</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28794</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21333</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41423; 46172</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8563; 10327</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15239; 17151</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3818; 5989</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18143; 19859</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8339; 10056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9954; 11643</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12724; 15344</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61676; 66031</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18539; 20383</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26902; 28794</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18644; 21333</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>140302</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86288</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80589</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>59074</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79275</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67112</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46291</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49067</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>219577</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>153400</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>126880</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>108140</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>135073; 142291</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84320; 86288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>76230; 81572</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56449; 59074</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>77303; 79275</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65040; 67112</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44485; 46291</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45310; 49949</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>215529; 221566</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>151371; 153400</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>121525; 127863</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104507; 109022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>126028</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>99714</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>111251</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>93838</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>70042</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72631</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>71458</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75133</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>196070</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>172345</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>182709</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>168972</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>124063; 126028</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>97784; 99714</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>107382; 113123</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>90258; 95531</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>68070; 70042</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>70616; 72631</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>69557; 71458</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72684; 75552</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>194090; 196070</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>170365; 172345</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>178628; 184581</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>164675; 170660</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>110094</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91196</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>90393</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>107550</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37037</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41446</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54995</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>152797</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>147131</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>132642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>145388</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>260346</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>106315; 111110</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>89140; 91196</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>85970; 91428</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>102905; 108553</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35176; 37037</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39363; 41446</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>50410; 56107</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>149168; 154949</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142487; 148147</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>130557; 132642</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>141030; 147535</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>255181; 262678</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45882</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43114</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44848</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67436</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13909</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24582</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30799</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55345</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59791</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67696</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>75646</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>122781</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44054; 45882</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>39823; 43927</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>42758; 44848</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>65780; 67436</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12156; 13909</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22549; 24582</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28626; 30799</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54507; 55507</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>57945; 59791</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>63947; 68509</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>73484; 75646</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>121802; 122943</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2923</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>810; 1880</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2029; 2923</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2144; 2914</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>810; 1880</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4920; 5836</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>468450</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>330639</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>346111</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>336809</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>215186</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>350600</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>688572</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>546466</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>561297</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>687409</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>463283; 471292</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>326996; 331452</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>341162; 349046</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>332373; 338806</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>218166; 220121</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>213747; 215828</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>210200; 216298</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>345853; 352800</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>682580; 691449</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>542649; 547279</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>554297; 564443</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>681710; 690759</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>